--- a/kenya_sut/Database/Shock_biomass_ongrid.xlsx
+++ b/kenya_sut/Database/Shock_biomass_ongrid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BC7909-75E7-4C9E-9C79-E29180BF2456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6459872A-DFBA-4E89-B463-2BDAE52F7B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="254">
   <si>
     <t>level_row</t>
   </si>
@@ -718,18 +718,6 @@
     <t>Efficiency of the old diesel generator</t>
   </si>
   <si>
-    <t>Size of the generator</t>
-  </si>
-  <si>
-    <t>Reference size of biodigester</t>
-  </si>
-  <si>
-    <t>Reference size of storage</t>
-  </si>
-  <si>
-    <t>Reference size of generator</t>
-  </si>
-  <si>
     <t>$/Nm3 h</t>
   </si>
   <si>
@@ -794,13 +782,31 @@
   </si>
   <si>
     <t>Transport increase</t>
+  </si>
+  <si>
+    <t>Number of GenSets</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Size of Storage</t>
+  </si>
+  <si>
+    <t>Size of Generator</t>
+  </si>
+  <si>
+    <t>Size of Biodigester</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,6 +870,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -981,7 +1000,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1042,21 +1061,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,10 +1079,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1094,7 +1115,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1396,16 +1417,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="38.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" style="1"/>
+    <col min="2" max="2" width="38.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1419,7 +1440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1432,21 +1453,21 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="33" t="e">
         <f>main!C39</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1467,15 +1488,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.08984375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1483,7 +1504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1492,10 +1513,10 @@
       </c>
       <c r="C2" s="1">
         <f>main!C36</f>
-        <v>4677.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>68882.399999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1507,16 +1528,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1544,20 +1565,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" style="1"/>
+    <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="7" max="7" width="9.08984375" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1580,7 +1601,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1607,7 +1628,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1626,25 +1647,25 @@
       <c r="F3" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="5" t="e">
         <f>main!C37</f>
-        <v>2452.5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1692,17 +1713,17 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.08984375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1722,7 +1743,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1740,22 +1761,22 @@
       </c>
       <c r="F2" s="33">
         <f>main!C38</f>
-        <v>187.08799999999999</v>
+        <v>2755.2959999999998</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1797,14 +1818,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.90625" customWidth="1"/>
+    <col min="3" max="3" width="47.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1816,7 +1837,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1848,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1838,7 +1859,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1849,7 +1870,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1860,7 +1881,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1871,7 +1892,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1882,7 +1903,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1893,7 +1914,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1904,7 +1925,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1915,7 +1936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1926,7 +1947,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1937,7 +1958,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1948,7 +1969,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1959,7 +1980,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1970,7 +1991,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1981,7 +2002,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1992,7 +2013,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2003,7 +2024,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2014,7 +2035,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2025,7 +2046,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2036,7 +2057,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2047,7 +2068,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2058,7 +2079,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2069,7 +2090,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2080,7 +2101,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2091,7 +2112,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2102,7 +2123,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2113,7 +2134,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2124,7 +2145,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2135,7 +2156,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2146,7 +2167,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2157,7 +2178,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2168,7 +2189,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2179,7 +2200,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2190,7 +2211,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2201,7 +2222,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2212,7 +2233,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2220,7 +2241,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2228,7 +2249,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2236,7 +2257,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2244,7 +2265,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2252,7 +2273,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2260,7 +2281,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2268,7 +2289,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2276,7 +2297,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2284,7 +2305,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2292,7 +2313,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2300,7 +2321,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2308,7 +2329,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2316,7 +2337,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2324,7 +2345,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2332,7 +2353,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2340,7 +2361,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2348,7 +2369,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2356,87 +2377,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2450,22 +2471,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.6328125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2488,41 +2509,42 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="24">
-        <f>90000*C28/C27</f>
-        <v>90000</v>
+      <c r="B2" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>249</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="44"/>
       <c r="B3" s="17" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="24">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="44"/>
       <c r="B4" s="17" t="s">
         <v>217</v>
       </c>
@@ -2538,13 +2560,13 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="44"/>
       <c r="B5" s="17" t="s">
         <v>218</v>
       </c>
       <c r="C5" s="24">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
@@ -2553,14 +2575,13 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="24">
-        <f>90*C28/C27</f>
-        <v>90</v>
+      <c r="C6" s="24" t="s">
+        <v>249</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
@@ -2568,32 +2589,32 @@
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="44"/>
+      <c r="B7" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="39">
-        <v>0.03</v>
+      <c r="C7" s="34" t="s">
+        <v>249</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="44"/>
       <c r="B8" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="24" t="e">
         <f>C6/C9*1000*3600*C14*C15*C16</f>
-        <v>3178440000</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
@@ -2601,11 +2622,11 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="44"/>
       <c r="B9" s="17" t="s">
         <v>225</v>
       </c>
@@ -2617,29 +2638,29 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="44"/>
       <c r="B10" s="17" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C10" s="24">
         <v>106.3</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="44"/>
+      <c r="B11" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="42">
-        <f>C3*C25*$C$28/$C$27*C10/(10^6)</f>
-        <v>2976.4</v>
+      <c r="C11" s="37">
+        <f>C3*C25*C28*C10/(10^6)</f>
+        <v>68032</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
@@ -2648,13 +2669,13 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="17" t="s">
-        <v>233</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="44"/>
+      <c r="B12" s="46" t="s">
+        <v>229</v>
       </c>
       <c r="C12" s="24">
-        <f>C4*C26*$C$28/$C$27*C10/(10^6)</f>
+        <f>C4*C26*C28*C10/(10^6)</f>
         <v>0</v>
       </c>
       <c r="D12" s="24"/>
@@ -2664,14 +2685,14 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="44"/>
+      <c r="B13" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="42">
-        <f>C5*C28*1000*C10/(10^6)</f>
-        <v>1700.8</v>
+      <c r="C13" s="37">
+        <f>C5*C27*C28*1000*C10/(10^6)</f>
+        <v>850.4</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24" t="s">
@@ -2680,8 +2701,8 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="44"/>
       <c r="B14" s="17" t="s">
         <v>189</v>
       </c>
@@ -2695,8 +2716,8 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="44"/>
       <c r="B15" s="17" t="s">
         <v>191</v>
       </c>
@@ -2710,8 +2731,8 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="44"/>
       <c r="B16" s="17" t="s">
         <v>192</v>
       </c>
@@ -2727,41 +2748,41 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="44"/>
       <c r="B17" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C17" s="24">
         <v>25</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="44"/>
       <c r="B18" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="24">
+        <v>240</v>
+      </c>
+      <c r="C18" s="24" t="e">
         <f>C2*C19</f>
-        <v>27000</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="44"/>
       <c r="B19" s="17" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C19" s="24">
         <v>0.3</v>
@@ -2770,35 +2791,40 @@
       <c r="E19" s="24"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="44"/>
       <c r="B20" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="24"/>
+        <v>244</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>253</v>
+      </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="44"/>
       <c r="B21" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="24"/>
+        <v>245</v>
+      </c>
+      <c r="C21" s="24" t="e">
+        <f>C20*C18</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="44"/>
       <c r="B22" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -2806,10 +2832,10 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="44"/>
       <c r="B23" s="17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -2817,8 +2843,8 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="36"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="44"/>
       <c r="B24" s="17"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -2826,43 +2852,43 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="44"/>
       <c r="B25" s="17" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="C25" s="24">
         <v>4000</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="44"/>
       <c r="B26" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="41">
-        <v>40000000</v>
+        <v>250</v>
+      </c>
+      <c r="C26" s="36">
+        <v>2500000</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="24" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="44"/>
       <c r="B27" s="17" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="C27" s="24">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24" t="s">
@@ -2871,23 +2897,23 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="39"/>
       <c r="B28" s="30" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="C28" s="24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="42" t="s">
         <v>178</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -2901,8 +2927,8 @@
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="42"/>
       <c r="B30" s="16" t="s">
         <v>208</v>
       </c>
@@ -2914,8 +2940,8 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="41" t="s">
         <v>179</v>
       </c>
       <c r="B31" s="22" t="s">
@@ -2929,8 +2955,8 @@
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="37"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="41"/>
       <c r="B32" s="29" t="s">
         <v>209</v>
       </c>
@@ -2940,8 +2966,8 @@
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="41"/>
       <c r="B33" s="29" t="s">
         <v>181</v>
       </c>
@@ -2951,8 +2977,8 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="41"/>
       <c r="B34" s="22" t="s">
         <v>186</v>
       </c>
@@ -2964,8 +2990,8 @@
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="37"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="41"/>
       <c r="B35" s="22" t="s">
         <v>188</v>
       </c>
@@ -2977,16 +3003,16 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="40" t="s">
         <v>180</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C36" s="40">
+        <v>235</v>
+      </c>
+      <c r="C36" s="35">
         <f>SUM(C11:C13)</f>
-        <v>4677.2</v>
+        <v>68882.399999999994</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26" t="s">
@@ -2997,14 +3023,14 @@
       </c>
       <c r="G36" s="20"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="40"/>
       <c r="B37" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C37" s="40">
+        <v>237</v>
+      </c>
+      <c r="C37" s="35" t="e">
         <f>C6/C9*1000*3600/C14/C15*C16/1000*C28/C27</f>
-        <v>2452.5</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26" t="s">
@@ -3015,14 +3041,14 @@
       </c>
       <c r="G37" s="20"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="40"/>
       <c r="B38" s="19" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C38" s="31">
         <f>C36/C17</f>
-        <v>187.08799999999999</v>
+        <v>2755.2959999999998</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26" t="s">
@@ -3033,14 +3059,14 @@
       </c>
       <c r="G38" s="20"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="40"/>
       <c r="B39" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C39" s="43">
+        <v>232</v>
+      </c>
+      <c r="C39" s="38" t="e">
         <f>C7*C28/C27</f>
-        <v>0.03</v>
+        <v>#VALUE!</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="26" t="s">
@@ -3051,12 +3077,12 @@
       </c>
       <c r="G39" s="20"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B42" s="28" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B43" s="10" t="s">
         <v>200</v>
       </c>

--- a/kenya_sut/Database/Shock_biomass_ongrid.xlsx
+++ b/kenya_sut/Database/Shock_biomass_ongrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6459872A-DFBA-4E89-B463-2BDAE52F7B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A2C107-A37D-4403-9CF8-AFDE91A3FA75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -718,12 +718,6 @@
     <t>Efficiency of the old diesel generator</t>
   </si>
   <si>
-    <t>$/Nm3 h</t>
-  </si>
-  <si>
-    <t>Nm3 h</t>
-  </si>
-  <si>
     <t>Nm3</t>
   </si>
   <si>
@@ -800,6 +794,12 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>Nm3/h</t>
+  </si>
+  <si>
+    <t>$/Nm3/h</t>
   </si>
 </sst>
 </file>
@@ -1079,6 +1079,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1094,8 +1096,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="C2" s="1">
         <f>main!C36</f>
-        <v>68882.399999999994</v>
+        <v>5102.3999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="F2" s="33">
         <f>main!C38</f>
-        <v>2755.2959999999998</v>
+        <v>204.09599999999998</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>203</v>
@@ -2472,7 +2472,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2510,26 +2510,26 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>238</v>
+      <c r="B2" s="40" t="s">
+        <v>236</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="17" t="s">
         <v>216</v>
       </c>
@@ -2538,13 +2538,13 @@
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="17" t="s">
         <v>217</v>
       </c>
@@ -2561,7 +2561,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="17" t="s">
         <v>218</v>
       </c>
@@ -2576,12 +2576,12 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="40" t="s">
         <v>224</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
@@ -2589,26 +2589,26 @@
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="40" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="17" t="s">
         <v>223</v>
       </c>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="17" t="s">
         <v>225</v>
       </c>
@@ -2639,28 +2639,28 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C10" s="24">
         <v>106.3</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="44"/>
-      <c r="B11" s="46" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="41" t="s">
         <v>213</v>
       </c>
       <c r="C11" s="37">
         <f>C3*C25*C28*C10/(10^6)</f>
-        <v>68032</v>
+        <v>4252</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
@@ -2670,9 +2670,9 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46" t="s">
-        <v>229</v>
+      <c r="A12" s="46"/>
+      <c r="B12" s="41" t="s">
+        <v>227</v>
       </c>
       <c r="C12" s="24">
         <f>C4*C26*C28*C10/(10^6)</f>
@@ -2686,8 +2686,8 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="41" t="s">
         <v>214</v>
       </c>
       <c r="C13" s="37">
@@ -2702,7 +2702,7 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="17" t="s">
         <v>189</v>
       </c>
@@ -2717,7 +2717,7 @@
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="17" t="s">
         <v>191</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="44"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="17" t="s">
         <v>192</v>
       </c>
@@ -2749,24 +2749,24 @@
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C17" s="24">
         <v>25</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C18" s="24" t="e">
         <f>C2*C19</f>
@@ -2774,15 +2774,15 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="24">
         <v>0.3</v>
@@ -2791,16 +2791,16 @@
       <c r="E19" s="24"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="46"/>
+      <c r="B20" s="17" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="44"/>
-      <c r="B20" s="17" t="s">
-        <v>244</v>
-      </c>
       <c r="C20" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -2808,9 +2808,9 @@
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="44"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C21" s="24" t="e">
         <f>C20*C18</f>
@@ -2822,9 +2822,9 @@
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="17" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -2833,9 +2833,9 @@
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -2844,7 +2844,7 @@
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="17"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -2853,39 +2853,39 @@
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C25" s="24">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C26" s="36">
         <v>2500000</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="44"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C27" s="24">
         <v>1</v>
@@ -2900,20 +2900,20 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="39"/>
       <c r="B28" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C28" s="24">
         <v>16</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="44" t="s">
         <v>178</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -2928,7 +2928,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="42"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="16" t="s">
         <v>208</v>
       </c>
@@ -2941,7 +2941,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>179</v>
       </c>
       <c r="B31" s="22" t="s">
@@ -2956,7 +2956,7 @@
       <c r="G31" s="23"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="41"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="29" t="s">
         <v>209</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="41"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="29" t="s">
         <v>181</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="G33" s="23"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="41"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="22" t="s">
         <v>186</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="41"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="22" t="s">
         <v>188</v>
       </c>
@@ -3004,15 +3004,15 @@
       <c r="G35" s="23"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C36" s="35">
         <f>SUM(C11:C13)</f>
-        <v>68882.399999999994</v>
+        <v>5102.3999999999996</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26" t="s">
@@ -3024,9 +3024,9 @@
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="40"/>
+      <c r="A37" s="42"/>
       <c r="B37" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C37" s="35" t="e">
         <f>C6/C9*1000*3600/C14/C15*C16/1000*C28/C27</f>
@@ -3042,13 +3042,13 @@
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="40"/>
+      <c r="A38" s="42"/>
       <c r="B38" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C38" s="31">
         <f>C36/C17</f>
-        <v>2755.2959999999998</v>
+        <v>204.09599999999998</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26" t="s">
@@ -3060,9 +3060,9 @@
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="40"/>
+      <c r="A39" s="42"/>
       <c r="B39" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C39" s="38" t="e">
         <f>C7*C28/C27</f>

--- a/kenya_sut/Database/Shock_biomass_ongrid.xlsx
+++ b/kenya_sut/Database/Shock_biomass_ongrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A2C107-A37D-4403-9CF8-AFDE91A3FA75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A59AEE-EB30-4419-9AE3-FACEF95A9F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2472,7 +2472,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2873,7 +2873,7 @@
         <v>248</v>
       </c>
       <c r="C26" s="36">
-        <v>2500000</v>
+        <v>250000</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="24" t="s">

--- a/kenya_sut/Database/Shock_biomass_ongrid.xlsx
+++ b/kenya_sut/Database/Shock_biomass_ongrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A59AEE-EB30-4419-9AE3-FACEF95A9F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57811A21-457B-42DF-9E4C-B51ED340BDC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2472,7 +2472,7 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/kenya_sut/Database/Shock_biomass_ongrid.xlsx
+++ b/kenya_sut/Database/Shock_biomass_ongrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57811A21-457B-42DF-9E4C-B51ED340BDC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240F626-BA6A-4097-AECE-AE89C7353A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="256">
   <si>
     <t>level_row</t>
   </si>
@@ -800,6 +800,12 @@
   </si>
   <si>
     <t>$/Nm3/h</t>
+  </si>
+  <si>
+    <t>Labou Cost</t>
+  </si>
+  <si>
+    <t>https://kenya.paylab.com/salaryinfo</t>
   </si>
 </sst>
 </file>
@@ -1417,16 +1423,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="1"/>
-    <col min="2" max="2" width="38.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.08984375" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1458,16 +1464,16 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1488,15 +1494,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.08984375" style="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>5102.3999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1528,16 +1534,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1565,20 +1571,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="1"/>
-    <col min="2" max="2" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.08984375" style="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1607,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1655,17 +1661,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1713,17 +1719,17 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.08984375" style="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1767,16 +1773,16 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1818,14 +1824,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.90625" customWidth="1"/>
-    <col min="3" max="3" width="47.08984375" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1837,7 +1843,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1887,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2134,7 +2140,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2145,7 +2151,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2200,7 +2206,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2233,7 +2239,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2241,7 +2247,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2249,7 +2255,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2257,7 +2263,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2265,7 +2271,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2297,7 +2303,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2305,7 +2311,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2321,7 +2327,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2345,7 +2351,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2377,87 +2383,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2472,21 +2478,21 @@
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.6328125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>172</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="17" t="s">
         <v>216</v>
@@ -2543,7 +2549,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="17" t="s">
         <v>217</v>
@@ -2560,7 +2566,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="17" t="s">
         <v>218</v>
@@ -2575,7 +2581,7 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="40" t="s">
         <v>224</v>
@@ -2592,7 +2598,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="40" t="s">
         <v>222</v>
@@ -2607,7 +2613,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
       <c r="B8" s="17" t="s">
         <v>223</v>
@@ -2625,7 +2631,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
       <c r="B9" s="17" t="s">
         <v>225</v>
@@ -2638,7 +2644,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="17" t="s">
         <v>228</v>
@@ -2653,7 +2659,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="41" t="s">
         <v>213</v>
@@ -2669,7 +2675,7 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="41" t="s">
         <v>227</v>
@@ -2685,7 +2691,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="41" t="s">
         <v>214</v>
@@ -2701,7 +2707,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="17" t="s">
         <v>189</v>
@@ -2716,7 +2722,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="17" t="s">
         <v>191</v>
@@ -2731,7 +2737,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
       <c r="B16" s="17" t="s">
         <v>192</v>
@@ -2748,7 +2754,7 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="17" t="s">
         <v>231</v>
@@ -2763,7 +2769,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
       <c r="B18" s="17" t="s">
         <v>238</v>
@@ -2779,7 +2785,7 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="46"/>
       <c r="B19" s="17" t="s">
         <v>239</v>
@@ -2794,7 +2800,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
       <c r="B20" s="17" t="s">
         <v>242</v>
@@ -2807,7 +2813,7 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
       <c r="B21" s="17" t="s">
         <v>243</v>
@@ -2821,7 +2827,7 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
       <c r="B22" s="17" t="s">
         <v>244</v>
@@ -2832,7 +2838,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
       <c r="B23" s="17" t="s">
         <v>245</v>
@@ -2843,16 +2849,20 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="17" t="s">
+        <v>254</v>
+      </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G24" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="17" t="s">
         <v>250</v>
@@ -2867,7 +2877,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="17" t="s">
         <v>248</v>
@@ -2882,7 +2892,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" s="17" t="s">
         <v>249</v>
@@ -2897,7 +2907,7 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="30" t="s">
         <v>246</v>
@@ -2912,7 +2922,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>178</v>
       </c>
@@ -2927,7 +2937,7 @@
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
       <c r="B30" s="16" t="s">
         <v>208</v>
@@ -2940,7 +2950,7 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>179</v>
       </c>
@@ -2955,7 +2965,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="29" t="s">
         <v>209</v>
@@ -2966,7 +2976,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="29" t="s">
         <v>181</v>
@@ -2977,7 +2987,7 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
       <c r="B34" s="22" t="s">
         <v>186</v>
@@ -2990,7 +3000,7 @@
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="22" t="s">
         <v>188</v>
@@ -3003,7 +3013,7 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>180</v>
       </c>
@@ -3023,7 +3033,7 @@
       </c>
       <c r="G36" s="20"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="42"/>
       <c r="B37" s="19" t="s">
         <v>235</v>
@@ -3041,7 +3051,7 @@
       </c>
       <c r="G37" s="20"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="19" t="s">
         <v>234</v>
@@ -3059,7 +3069,7 @@
       </c>
       <c r="G38" s="20"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="19" t="s">
         <v>230</v>
@@ -3077,12 +3087,12 @@
       </c>
       <c r="G39" s="20"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="28" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>200</v>
       </c>

--- a/kenya_sut/Database/Shock_biomass_ongrid.xlsx
+++ b/kenya_sut/Database/Shock_biomass_ongrid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS_Kenya\kenya_sut\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240F626-BA6A-4097-AECE-AE89C7353A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A63D43-B189-4F7B-A74F-1E58AC821082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="-19590" windowWidth="28800" windowHeight="15375" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="261">
   <si>
     <t>level_row</t>
   </si>
@@ -664,9 +664,6 @@
     <t>Functional Unit</t>
   </si>
   <si>
-    <t>Productivity increase due to 100% new machines (not spoiling the cerry)</t>
-  </si>
-  <si>
     <t>Maximum number of machines</t>
   </si>
   <si>
@@ -772,9 +769,6 @@
     <t>Value of avoided fertilizer N</t>
   </si>
   <si>
-    <t>Labour increase</t>
-  </si>
-  <si>
     <t>Transport increase</t>
   </si>
   <si>
@@ -802,17 +796,38 @@
     <t>$/Nm3/h</t>
   </si>
   <si>
-    <t>Labou Cost</t>
-  </si>
-  <si>
     <t>https://kenya.paylab.com/salaryinfo</t>
+  </si>
+  <si>
+    <t>Labour Cost*</t>
+  </si>
+  <si>
+    <t>For every plant</t>
+  </si>
+  <si>
+    <t>kSh/month</t>
+  </si>
+  <si>
+    <t>Process Engineer Electrical &amp; Power Engineering</t>
+  </si>
+  <si>
+    <t>Technician (1)</t>
+  </si>
+  <si>
+    <t>Technician (2)</t>
+  </si>
+  <si>
+    <t>Increase in the use of transport as commodity by cooperatives</t>
+  </si>
+  <si>
+    <t>https://africafertilizer.org/kenya/#tab-id-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +904,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1002,11 +1025,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1102,10 +1126,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1121,7 +1150,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1423,16 +1452,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="38.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1446,12 +1475,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -1460,20 +1489,20 @@
         <v>7</v>
       </c>
       <c r="E2" s="33" t="e">
-        <f>main!C39</f>
+        <f>main!C38</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1494,15 +1523,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1510,7 +1539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1518,11 +1547,11 @@
         <v>67</v>
       </c>
       <c r="C2" s="1">
-        <f>main!C36</f>
+        <f>main!C35</f>
         <v>5102.3999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1534,16 +1563,16 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
     </row>
   </sheetData>
@@ -1571,20 +1600,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1636,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1634,7 +1663,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1653,25 +1682,25 @@
       <c r="F3" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G3" s="5" t="e">
-        <f>main!C37</f>
-        <v>#VALUE!</v>
+      <c r="G3" s="5">
+        <f>main!C36</f>
+        <v>3488</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -1719,17 +1748,17 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1749,7 +1778,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1766,23 +1795,23 @@
         <v>201</v>
       </c>
       <c r="F2" s="33">
-        <f>main!C38</f>
+        <f>main!C37</f>
         <v>204.09599999999998</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
   </sheetData>
@@ -1821,17 +1850,17 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -1843,7 +1872,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1854,7 +1883,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1865,7 +1894,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1876,7 +1905,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1887,7 +1916,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1898,7 +1927,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1909,7 +1938,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1920,7 +1949,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1931,7 +1960,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1942,7 +1971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1953,7 +1982,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1964,7 +1993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1975,7 +2004,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1986,7 +2015,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2026,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2008,7 +2037,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2019,7 +2048,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2030,7 +2059,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2041,7 +2070,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2052,7 +2081,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2063,7 +2092,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2074,7 +2103,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2085,7 +2114,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2096,7 +2125,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2107,7 +2136,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2118,7 +2147,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2129,7 +2158,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2140,7 +2169,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2151,7 +2180,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2162,7 +2191,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2173,7 +2202,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2184,7 +2213,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2195,7 +2224,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2206,7 +2235,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2217,7 +2246,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2228,7 +2257,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2239,7 +2268,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2247,7 +2276,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2255,7 +2284,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2263,7 +2292,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2271,7 +2300,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2279,7 +2308,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2287,7 +2316,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2295,7 +2324,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2303,7 +2332,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2311,7 +2340,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2319,7 +2348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2327,7 +2356,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2335,7 +2364,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2343,7 +2372,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -2351,7 +2380,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2359,7 +2388,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -2367,7 +2396,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -2375,7 +2404,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -2383,87 +2412,87 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -2475,24 +2504,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="81.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="11" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>173</v>
       </c>
@@ -2515,112 +2544,113 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>172</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>247</v>
+        <v>235</v>
+      </c>
+      <c r="C2" s="37">
+        <f>C6/0.45/10/200*10^6</f>
+        <v>8888.8888888888887</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="46"/>
       <c r="B3" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="24">
         <v>10000</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="46"/>
       <c r="B4" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C4" s="24">
         <v>0</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C5" s="24">
         <v>500</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
       <c r="B6" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>247</v>
+        <v>223</v>
+      </c>
+      <c r="C6" s="24">
+        <v>8</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="46"/>
       <c r="B7" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="46"/>
       <c r="B8" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="24" t="e">
+        <v>222</v>
+      </c>
+      <c r="C8" s="24">
         <f>C6/C9*1000*3600*C14*C15*C16</f>
-        <v>#VALUE!</v>
+        <v>282528000</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
@@ -2628,13 +2658,13 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="46"/>
       <c r="B9" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="24">
         <v>0.4</v>
@@ -2644,28 +2674,28 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="24">
         <v>106.3</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
       <c r="B11" s="41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="37">
-        <f>C3*C25*C28*C10/(10^6)</f>
+        <f>C3*C24*C27*C10/(10^6)</f>
         <v>4252</v>
       </c>
       <c r="D11" s="24"/>
@@ -2675,13 +2705,13 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="46"/>
       <c r="B12" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="24">
-        <f>C4*C26*C28*C10/(10^6)</f>
+        <f>C4*C25*C27*C10/(10^6)</f>
         <v>0</v>
       </c>
       <c r="D12" s="24"/>
@@ -2691,13 +2721,13 @@
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
       <c r="B13" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="37">
-        <f>C5*C27*C28*1000*C10/(10^6)</f>
+        <f>C5*C26*C27*1000*C10/(10^6)</f>
         <v>850.4</v>
       </c>
       <c r="D13" s="24"/>
@@ -2707,7 +2737,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="46"/>
       <c r="B14" s="17" t="s">
         <v>189</v>
@@ -2722,7 +2752,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="46"/>
       <c r="B15" s="17" t="s">
         <v>191</v>
@@ -2737,7 +2767,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="46"/>
       <c r="B16" s="17" t="s">
         <v>192</v>
@@ -2754,41 +2784,41 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C17" s="24">
         <v>25</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="46"/>
       <c r="B18" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C18" s="24" t="e">
+        <v>237</v>
+      </c>
+      <c r="C18" s="24">
         <f>C2*C19</f>
-        <v>#VALUE!</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
       <c r="B19" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C19" s="24">
         <v>0.3</v>
@@ -2797,26 +2827,28 @@
       <c r="E19" s="24"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="46"/>
       <c r="B20" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="47" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="46"/>
       <c r="B21" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C21" s="24" t="e">
         <f>C20*C18</f>
@@ -2827,10 +2859,10 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -2838,98 +2870,105 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="46"/>
       <c r="B23" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C23" s="24"/>
+        <v>253</v>
+      </c>
+      <c r="C23" s="24">
+        <f>C27*(C46+C47+C48)*12/(10^6)</f>
+        <v>33.6</v>
+      </c>
       <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+      <c r="E23" s="24" t="s">
+        <v>198</v>
+      </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="46"/>
       <c r="B24" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="24"/>
+        <v>248</v>
+      </c>
+      <c r="C24" s="24">
+        <v>250</v>
+      </c>
       <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="24" t="s">
+        <v>250</v>
+      </c>
       <c r="F24" s="18"/>
-      <c r="G24" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25" s="24">
-        <v>250</v>
-      </c>
-      <c r="D25" s="24"/>
+        <v>246</v>
+      </c>
+      <c r="C25" s="36">
+        <v>250000</v>
+      </c>
+      <c r="D25" s="18"/>
       <c r="E25" s="24" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C26" s="36">
-        <v>250000</v>
-      </c>
-      <c r="D26" s="18"/>
+        <v>247</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24"/>
       <c r="E26" s="24" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="17" t="s">
-        <v>249</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="39"/>
+      <c r="B27" s="30" t="s">
+        <v>244</v>
       </c>
       <c r="C27" s="24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C28" s="24">
-        <v>16</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24" t="s">
-        <v>247</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="44" t="s">
         <v>178</v>
       </c>
+      <c r="B28" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="44"/>
       <c r="B29" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="C29" s="25">
+        <v>259</v>
+      </c>
+      <c r="C29" s="48">
         <v>0.3</v>
       </c>
       <c r="D29" s="25"/>
@@ -2937,38 +2976,36 @@
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="16" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="29" t="s">
         <v>208</v>
-      </c>
-      <c r="C30" s="25">
-        <v>0.02</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>184</v>
       </c>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="27" t="s">
-        <v>185</v>
-      </c>
+      <c r="E31" s="27"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="29" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -2976,135 +3013,160 @@
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
-      <c r="B33" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="27"/>
+      <c r="B33" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="32"/>
       <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="E33" s="27" t="s">
+        <v>187</v>
+      </c>
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C34" s="32"/>
       <c r="D34" s="27"/>
       <c r="E34" s="27" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="35">
+      <c r="B35" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="35">
         <f>SUM(C11:C13)</f>
         <v>5102.3999999999996</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="35">
+        <f>C6/C9*1000*3600/C14/C15*C16/1000*C27/C26</f>
+        <v>3488</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26" t="s">
         <v>198</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G36" s="20"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C37" s="35" t="e">
-        <f>C6/C9*1000*3600/C14/C15*C16/1000*C28/C27</f>
-        <v>#VALUE!</v>
+        <v>233</v>
+      </c>
+      <c r="C37" s="31">
+        <f>C35/C17</f>
+        <v>204.09599999999998</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26" t="s">
         <v>198</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G37" s="20"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="42"/>
       <c r="B38" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" s="31">
-        <f>C36/C17</f>
-        <v>204.09599999999998</v>
+        <v>229</v>
+      </c>
+      <c r="C38" s="38" t="e">
+        <f>C7*C27/C26</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G38" s="20"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C39" s="38" t="e">
-        <f>C7*C28/C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="G39" s="20"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="28" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="28" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="10" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A2:A26"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{84C6F64B-1945-4EBA-8B1B-CEE00995A49C}"/>
+    <hyperlink ref="G20" r:id="rId2" location="tab-id-3" xr:uid="{5DAE99B1-6F95-4D10-BA19-123AB017C754}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/kenya_sut/Database/Shock_biomass_ongrid.xlsx
+++ b/kenya_sut/Database/Shock_biomass_ongrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\kenya_sut\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A63D43-B189-4F7B-A74F-1E58AC821082}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E191D2D-0CA9-4914-86FE-D3F5659A6845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="-19590" windowWidth="28800" windowHeight="15375" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="266">
   <si>
     <t>level_row</t>
   </si>
@@ -703,15 +703,6 @@
     <t>GWh</t>
   </si>
   <si>
-    <t>Reduction in electricity sector carbon intensity</t>
-  </si>
-  <si>
-    <t>Avoided petroleum</t>
-  </si>
-  <si>
-    <t>Electricity produced in 1 year by the new plant</t>
-  </si>
-  <si>
     <t>Efficiency of the old diesel generator</t>
   </si>
   <si>
@@ -787,9 +778,6 @@
     <t>Size of Biodigester</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>Nm3/h</t>
   </si>
   <si>
@@ -821,6 +809,33 @@
   </si>
   <si>
     <t>https://africafertilizer.org/kenya/#tab-id-3</t>
+  </si>
+  <si>
+    <t>Carbon intensity of electricity production from heavy fuel oil</t>
+  </si>
+  <si>
+    <t>kgCO2/kWh</t>
+  </si>
+  <si>
+    <t>https://www.engineeringtoolbox.com/co2-emission-fuels-d_1085.html</t>
+  </si>
+  <si>
+    <t>Reduction in electricity sector carbon emission</t>
+  </si>
+  <si>
+    <t>kton</t>
+  </si>
+  <si>
+    <t>Calliope (to be changed for every different number of GenSets)</t>
+  </si>
+  <si>
+    <t>kSh/ton</t>
+  </si>
+  <si>
+    <t>Electricity produced in 1 year by the new plants</t>
+  </si>
+  <si>
+    <t>https://www.engineeringtoolbox.com/fuels-higher-calorific-values-d_169.html</t>
   </si>
 </sst>
 </file>
@@ -1091,9 +1106,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,8 +1121,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,8 +1141,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1488,9 +1505,9 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="33" t="e">
+      <c r="E2" s="33">
         <f>main!C38</f>
-        <v>#VALUE!</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1548,7 +1565,7 @@
       </c>
       <c r="C2" s="1">
         <f>main!C35</f>
-        <v>5102.3999999999996</v>
+        <v>5421.3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1684,7 +1701,7 @@
       </c>
       <c r="G3" s="5">
         <f>main!C36</f>
-        <v>3488</v>
+        <v>2053.375196232339</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>203</v>
@@ -1796,7 +1813,7 @@
       </c>
       <c r="F2" s="33">
         <f>main!C37</f>
-        <v>204.09599999999998</v>
+        <v>216.852</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>203</v>
@@ -2506,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2548,20 +2565,20 @@
       <c r="A2" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="37">
+      <c r="B2" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="36">
         <f>C6/0.45/10/200*10^6</f>
-        <v>8888.8888888888887</v>
+        <v>88888.888888888891</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2574,7 +2591,7 @@
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
@@ -2584,7 +2601,7 @@
       <c r="B4" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="48">
         <v>0</v>
       </c>
       <c r="D4" s="24"/>
@@ -2613,11 +2630,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
-      <c r="B6" s="40" t="s">
-        <v>223</v>
+      <c r="B6" s="39" t="s">
+        <v>264</v>
       </c>
       <c r="C6" s="24">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
@@ -2625,46 +2642,46 @@
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="46"/>
-      <c r="B7" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>245</v>
+      <c r="B7" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="47">
+        <f>C6*C8/C9</f>
+        <v>54</v>
       </c>
       <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
+      <c r="E7" s="24" t="s">
+        <v>261</v>
+      </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="18" t="s">
-        <v>240</v>
-      </c>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="46"/>
-      <c r="B8" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="24">
-        <f>C6/C9*1000*3600*C14*C15*C16</f>
-        <v>282528000</v>
+      <c r="B8" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="47">
+        <v>0.27</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="F8" s="18"/>
-      <c r="G8" s="18" t="s">
-        <v>240</v>
+      <c r="G8" s="40" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="46"/>
       <c r="B9" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C9" s="24">
         <v>0.4</v>
@@ -2677,26 +2694,26 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C10" s="24">
         <v>106.3</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <f>C3*C24*C27*C10/(10^6)</f>
-        <v>4252</v>
+        <v>4517.75</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24" t="s">
@@ -2707,8 +2724,8 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="46"/>
-      <c r="B12" s="41" t="s">
-        <v>226</v>
+      <c r="B12" s="39" t="s">
+        <v>223</v>
       </c>
       <c r="C12" s="24">
         <f>C4*C25*C27*C10/(10^6)</f>
@@ -2723,12 +2740,12 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <f>C5*C26*C27*1000*C10/(10^6)</f>
-        <v>850.4</v>
+        <v>903.55</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24" t="s">
@@ -2743,14 +2760,16 @@
         <v>189</v>
       </c>
       <c r="C14" s="24">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24" t="s">
         <v>190</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="18" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="46"/>
@@ -2758,14 +2777,16 @@
         <v>191</v>
       </c>
       <c r="C15" s="24">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24" t="s">
         <v>194</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+      <c r="G15" s="18" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="46"/>
@@ -2787,14 +2808,14 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C17" s="24">
         <v>25</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -2802,15 +2823,15 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="46"/>
       <c r="B18" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="C18" s="24">
+        <v>234</v>
+      </c>
+      <c r="C18" s="36">
         <f>C2*C19</f>
-        <v>2666.6666666666665</v>
+        <v>26666.666666666668</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -2818,7 +2839,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
       <c r="B19" s="17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C19" s="24">
         <v>0.3</v>
@@ -2827,44 +2848,51 @@
       <c r="E19" s="24"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="46"/>
       <c r="B20" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>249</v>
+        <v>238</v>
+      </c>
+      <c r="C20" s="36">
+        <f>450*C10/1000</f>
+        <v>47.835000000000001</v>
       </c>
       <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="F20" s="18"/>
-      <c r="G20" s="47" t="s">
-        <v>260</v>
+      <c r="G20" s="40" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="46"/>
       <c r="B21" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="24" t="e">
-        <f>C20*C18</f>
-        <v>#VALUE!</v>
+        <v>239</v>
+      </c>
+      <c r="C21" s="36">
+        <f>C20*C18/1000</f>
+        <v>1275.5999999999999</v>
       </c>
       <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="E21" s="24" t="s">
+        <v>198</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C22" s="24"/>
+        <v>240</v>
+      </c>
+      <c r="C22" s="48">
+        <v>0</v>
+      </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="18"/>
@@ -2873,32 +2901,32 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="46"/>
       <c r="B23" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C23" s="24">
         <f>C27*(C46+C47+C48)*12/(10^6)</f>
-        <v>33.6</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24" t="s">
         <v>198</v>
       </c>
       <c r="F23" s="18"/>
-      <c r="G23" s="47" t="s">
-        <v>252</v>
+      <c r="G23" s="40" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="46"/>
       <c r="B24" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C24" s="24">
         <v>250</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="24" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -2906,14 +2934,14 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C25" s="36">
+        <v>243</v>
+      </c>
+      <c r="C25" s="35">
         <v>250000</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="24" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -2921,7 +2949,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C26" s="24">
         <v>1</v>
@@ -2934,16 +2962,16 @@
       <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="30" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C27" s="24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -2966,9 +2994,9 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="48">
+        <v>255</v>
+      </c>
+      <c r="C29" s="41">
         <v>0.3</v>
       </c>
       <c r="D29" s="25"/>
@@ -3044,11 +3072,11 @@
         <v>180</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="35">
+        <v>229</v>
+      </c>
+      <c r="C35" s="34">
         <f>SUM(C11:C13)</f>
-        <v>5102.3999999999996</v>
+        <v>5421.3</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="26" t="s">
@@ -3062,11 +3090,11 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="42"/>
       <c r="B36" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C36" s="35">
-        <f>C6/C9*1000*3600/C14/C15*C16/1000*C27/C26</f>
-        <v>3488</v>
+        <v>231</v>
+      </c>
+      <c r="C36" s="34">
+        <f>C6/C9*1000*3600/C14/C15*C16/1000</f>
+        <v>2053.375196232339</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="26" t="s">
@@ -3080,11 +3108,11 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C37" s="31">
         <f>C35/C17</f>
-        <v>204.09599999999998</v>
+        <v>216.852</v>
       </c>
       <c r="D37" s="26"/>
       <c r="E37" s="26" t="s">
@@ -3098,11 +3126,11 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="42"/>
       <c r="B38" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="38" t="e">
+        <v>226</v>
+      </c>
+      <c r="C38" s="37">
         <f>C7*C27/C26</f>
-        <v>#VALUE!</v>
+        <v>918</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="26" t="s">
@@ -3123,17 +3151,23 @@
         <v>200</v>
       </c>
     </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f>59/90</f>
+        <v>0.65555555555555556</v>
+      </c>
+    </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C45" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C46">
         <v>75000</v>
@@ -3141,7 +3175,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C47">
         <v>50000</v>
@@ -3149,7 +3183,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C48">
         <v>50000</v>
@@ -3165,8 +3199,9 @@
   <hyperlinks>
     <hyperlink ref="G23" r:id="rId1" xr:uid="{84C6F64B-1945-4EBA-8B1B-CEE00995A49C}"/>
     <hyperlink ref="G20" r:id="rId2" location="tab-id-3" xr:uid="{5DAE99B1-6F95-4D10-BA19-123AB017C754}"/>
+    <hyperlink ref="G8" r:id="rId3" xr:uid="{5E1D2F9F-64EB-463B-84ED-7D3426C5B2DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>